--- a/biology/Médecine/Cohorte_épidémiologique/Cohorte_épidémiologique.xlsx
+++ b/biology/Médecine/Cohorte_épidémiologique/Cohorte_épidémiologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cohorte_%C3%A9pid%C3%A9miologique</t>
+          <t>Cohorte_épidémiologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cohorte épidémiologique est une approche médicale qui permet de suivre dans le temps un certain nombre de personnes et l'évolution de leur état de santé. On distingue les cohortes de malades et les cohortes en population générale.
 Une cohorte de malades consiste à suivre dans le temps un groupe de personnes porteuses d'une même maladie. Une cohorte en population générale consiste au suivi longitudinal de personnes choisies indépendamment de leur état de santé. Il s'agit surtout d'étudier les facteurs qui augmentent le risque de développer des maladies. Ces cohortes sont donc plus orientées vers l'étude des facteurs de risque et donc la prévention.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cohorte_%C3%A9pid%C3%A9miologique</t>
+          <t>Cohorte_épidémiologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calcul du risque relatif
 Calcul incidence cumulée / taux d'incidence
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cohorte_%C3%A9pid%C3%A9miologique</t>
+          <t>Cohorte_épidémiologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biais de sélection
 Perdus de vues
 Résultats longs à obtenir
-Peu adapté aux pathologies rares (nécessite de très grand échantillons[1])
+Peu adapté aux pathologies rares (nécessite de très grand échantillons)
 Le coût et l'organisation (personnels, locaux, matériels, planification, etc.)</t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cohorte_%C3%A9pid%C3%A9miologique</t>
+          <t>Cohorte_épidémiologique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,14 +599,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En France
-Étude épidémiologique auprès de femmes de la Mutuelle générale de l'Éducation nationale (E3N)
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Étude épidémiologique auprès de femmes de la Mutuelle générale de l'Éducation nationale (E3N)
 Étude épidémiologique auprès des enfants des femmes de la Mutuelle générale de l'Éducation nationale (E4N)
 Constances
 Étude EDEN
-Étude NutriNet-Santé
-Autres pays
-Étude « CoLaus » (cohorte lausannoise)
+Étude NutriNet-Santé</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cohorte_épidémiologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cohorte_%C3%A9pid%C3%A9miologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de cohortes épidémiologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Étude « CoLaus » (cohorte lausannoise)
 Etude de Dunedin
 Étude de Framingham</t>
         </is>
